--- a/adventure-hero-books/checklist.xlsx
+++ b/adventure-hero-books/checklist.xlsx
@@ -1,39 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/adventure-hero-books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFF52D4-E749-434F-B969-B5EB68767908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5478E6B9-9DB0-2B4F-B7E3-07BEE91A7A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C14ACDCF-5F28-F342-9A55-4632BBEDD52E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
+  <si>
+    <t>Index</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -56,9 +46,21 @@
     <t>Druaga Tower Side Story</t>
   </si>
   <si>
+    <t>Keibunsha</t>
+  </si>
+  <si>
     <t>01.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">チャレンジャー秘宝よ永遠に! </t>
+  </si>
+  <si>
+    <t>Challenger Treasure Forever!</t>
+  </si>
+  <si>
+    <t>02.jpg</t>
+  </si>
+  <si>
     <t>機動戦士ガンダム 最期の赤い彗星</t>
   </si>
   <si>
@@ -68,7 +70,67 @@
     <t>03.jpg</t>
   </si>
   <si>
-    <t>Index</t>
+    <t>影の伝説 魔神バラコンダの謎</t>
+  </si>
+  <si>
+    <t>The Legend of Shadow: The Mystery of the Demon Baraconda</t>
+  </si>
+  <si>
+    <t>04.jpg</t>
+  </si>
+  <si>
+    <t>スーパーマリオブラザーズ外伝</t>
+  </si>
+  <si>
+    <t>Super Mario Bros Side Story</t>
+  </si>
+  <si>
+    <t>05.jpg</t>
+  </si>
+  <si>
+    <t>機動戦士ガンダム灼熱の追撃</t>
+  </si>
+  <si>
+    <t>Mobile Suit Gundam: Burning Pursuit</t>
+  </si>
+  <si>
+    <t>06.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ソロモンの鍵外伝</t>
+  </si>
+  <si>
+    <t>Solomon's Key Side Story</t>
+  </si>
+  <si>
+    <t>07.jpg</t>
+  </si>
+  <si>
+    <t>スーパーマリオブラザーズ外伝 2</t>
+  </si>
+  <si>
+    <t>Super Mario Bros Side Story 2</t>
+  </si>
+  <si>
+    <t>08.jpg</t>
+  </si>
+  <si>
+    <t>ガルフォース忘却の惑星</t>
+  </si>
+  <si>
+    <t>Gall Force: Oblivion Planet</t>
+  </si>
+  <si>
+    <t>09.jpg</t>
+  </si>
+  <si>
+    <t>リンクの冒険 ハイラル英雄伝説</t>
+  </si>
+  <si>
+    <t>Link Adventure: Legend of Hyrule Heroes</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
   </si>
   <si>
     <t>スーパースターフォース</t>
@@ -77,28 +139,61 @@
     <t>Super Star Force</t>
   </si>
   <si>
-    <t>02.jpg</t>
-  </si>
-  <si>
-    <t>04.jpg</t>
-  </si>
-  <si>
-    <t>05.jpg</t>
-  </si>
-  <si>
-    <t>06.jpg</t>
-  </si>
-  <si>
-    <t>07.jpg</t>
-  </si>
-  <si>
-    <t>08.jpg</t>
-  </si>
-  <si>
-    <t>09.jpg</t>
-  </si>
-  <si>
-    <t>Keibunsha</t>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>ディーヴァ女戦士ミリスの挑戦</t>
+  </si>
+  <si>
+    <t>Divas Warrior: Miri's Challenge</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新ゼルダの伝説</t>
+  </si>
+  <si>
+    <t>The Legend of New Zelda</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>暗黒の妖魔惑星</t>
+  </si>
+  <si>
+    <t>Dark Demon Planet</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>レリクス闇からの侵略者</t>
+  </si>
+  <si>
+    <t>Relics Invaders from the Dark</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>機動戦士Zガンダム ジェリド出撃命令</t>
+  </si>
+  <si>
+    <t>Mobile Suit Z Gundam: Jerid Order</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>魔鐘ルーバス復活の陰謀</t>
+  </si>
+  <si>
+    <t>The Conspiracy of Resurrection</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
   </si>
   <si>
     <t>宇宙刑事シャイダー―挑戦者時空を越えて</t>
@@ -107,28 +202,160 @@
     <t>Space Sheriff Scheider-Beyond Challenger Space-Time</t>
   </si>
   <si>
-    <t xml:space="preserve">チャレンジャー秘宝よ永遠に! </t>
-  </si>
-  <si>
-    <t>Challenger Treasure Forever!</t>
-  </si>
-  <si>
-    <t>暗黒の妖魔惑星</t>
-  </si>
-  <si>
-    <t>Dark Demon Planet</t>
-  </si>
-  <si>
-    <t>スーパーマリオブラザーズ外伝</t>
-  </si>
-  <si>
-    <t>Super Mario Bros Side Story</t>
-  </si>
-  <si>
-    <t>スーパーマリオブラザーズ外伝 2</t>
-  </si>
-  <si>
-    <t>Super Mario Bros Side Story 2</t>
+    <t>18.jpg</t>
+  </si>
+  <si>
+    <t>メルヘンヴェール妖怪バーニバオの謎</t>
+  </si>
+  <si>
+    <t>Fairy Tale Veil Ghost Bernibao Mystery</t>
+  </si>
+  <si>
+    <t>19.jpg</t>
+  </si>
+  <si>
+    <t>アルゴスの戦士外伝聖戦士誕生</t>
+  </si>
+  <si>
+    <t>Argos Warrior Side Story: Holy Warrior is Born</t>
+  </si>
+  <si>
+    <t>20.jpg</t>
+  </si>
+  <si>
+    <t>禁断の黙示録クリスタルトライアングル</t>
+  </si>
+  <si>
+    <t>Forbidden Apocalypse Crystal Triangle</t>
+  </si>
+  <si>
+    <t>21.jpg</t>
+  </si>
+  <si>
+    <t>ディープダンジョン ルウの遺産</t>
+  </si>
+  <si>
+    <t>Legacy of Deep Dungeon Lou</t>
+  </si>
+  <si>
+    <t>22.jpg</t>
+  </si>
+  <si>
+    <t>アテナ幻想界の大妖魔</t>
+  </si>
+  <si>
+    <t>Athena: The Great Demon of Fantasy</t>
+  </si>
+  <si>
+    <t>23.jpg</t>
+  </si>
+  <si>
+    <t>愛戦士ニコル―宇宙の絆</t>
+  </si>
+  <si>
+    <t>Love Warrior Nicole: The Bond of the Universe</t>
+  </si>
+  <si>
+    <t>24.jpg</t>
+  </si>
+  <si>
+    <t>装甲騎兵ボトムズ復讐の惑星シド</t>
+  </si>
+  <si>
+    <t>Armored Trooper Votoms: Revenge Planet Sid</t>
+  </si>
+  <si>
+    <t>25.jpg</t>
+  </si>
+  <si>
+    <t>クレオパトラの魔宝 古代王朝の王冠</t>
+  </si>
+  <si>
+    <t>Cleopatra's Treasure: Ancient Dynasty Crown</t>
+  </si>
+  <si>
+    <t>26.jpg</t>
+  </si>
+  <si>
+    <t>エアウルフ東京極秘指令</t>
+  </si>
+  <si>
+    <t>Airwolf: Tokyo Top Secret Order</t>
+  </si>
+  <si>
+    <t>27.jpg</t>
+  </si>
+  <si>
+    <t>未来神話ジャーヴァス闇の反逆者</t>
+  </si>
+  <si>
+    <t>Future Myth Jarvas: Rebel of Darkness</t>
+  </si>
+  <si>
+    <t>28.jpg</t>
+  </si>
+  <si>
+    <t>ナイトライダー無人兵器ゴリアテの挑戦</t>
+  </si>
+  <si>
+    <t>Knight Rider: Unmanned Weapon Goliath's Challenge</t>
+  </si>
+  <si>
+    <t>29.jpg</t>
+  </si>
+  <si>
+    <t>サラマンダ ラティス救出作戦</t>
+  </si>
+  <si>
+    <t>Salamanda: Lattice Rescue Operation</t>
+  </si>
+  <si>
+    <t>30.jpg</t>
+  </si>
+  <si>
+    <t>ウルティマ ブリタニア王国の危機</t>
+  </si>
+  <si>
+    <t>Ultima Crisis in Britannia</t>
+  </si>
+  <si>
+    <t>31.jpg</t>
+  </si>
+  <si>
+    <t>聖剣サイコカリバー外伝</t>
+  </si>
+  <si>
+    <t>Holy Sword Psycho Caliber Side Story</t>
+  </si>
+  <si>
+    <t>32.jpg</t>
+  </si>
+  <si>
+    <t>ミネルバトンサーガ暗黒神ゾーンの復讐</t>
+  </si>
+  <si>
+    <t>Minervaton Saga Dark God Zone Revenge</t>
+  </si>
+  <si>
+    <t>33.gif</t>
+  </si>
+  <si>
+    <t>カリーンの剣 外伝―魔道士伝説</t>
+  </si>
+  <si>
+    <t>Karen's Sword Side Story: Legend of the Mage</t>
+  </si>
+  <si>
+    <t>34.jpg</t>
+  </si>
+  <si>
+    <t>耐熱装甲レガシアムG計画撃滅作戦</t>
+  </si>
+  <si>
+    <t>Heat-Resistant Armor Legassium G Plan Destruction Strategy</t>
+  </si>
+  <si>
+    <t>35.jpg</t>
   </si>
   <si>
     <t>ガルフォース</t>
@@ -137,179 +364,225 @@
     <t>Gall Force 2: Beat Chaos Secret Base</t>
   </si>
   <si>
-    <t>機動戦士Zガンダム ジェリド出撃命令</t>
-  </si>
-  <si>
-    <t>Mobile Suit Z Gundam: Jerid Order</t>
-  </si>
-  <si>
-    <t>カリーンの剣 外伝―魔道士伝説</t>
-  </si>
-  <si>
-    <t>Karen's Sword Side Story: Legend of the Mage</t>
-  </si>
-  <si>
-    <t>愛戦士ニコル―宇宙の絆</t>
-  </si>
-  <si>
-    <t>Love Warrior Nicole: The Bond of the Universe</t>
-  </si>
-  <si>
-    <t>33.gif</t>
-  </si>
-  <si>
-    <t>ミネルバトンサーガ暗黒神ゾーンの復讐</t>
-  </si>
-  <si>
-    <t>Minervaton Saga Dark God Zone Revenge</t>
-  </si>
-  <si>
-    <t>影の伝説 魔神バラコンダの謎</t>
-  </si>
-  <si>
-    <t>The Legend of Shadow: The Mystery of the Demon Baraconda</t>
-  </si>
-  <si>
-    <t>機動戦士ガンダム灼熱の追撃</t>
-  </si>
-  <si>
-    <t>Mobile Suit Gundam: Burning Pursuit</t>
-  </si>
-  <si>
-    <t>ガルフォース忘却の惑星</t>
-  </si>
-  <si>
-    <t>Gall Force: Oblivion Planet</t>
-  </si>
-  <si>
-    <t>リンクの冒険 ハイラル英雄伝説</t>
-  </si>
-  <si>
-    <t>Link Adventure: Legend of Hyrule Heroes</t>
-  </si>
-  <si>
-    <t>ディーヴァ女戦士ミリスの挑戦</t>
-  </si>
-  <si>
-    <t>Divas Warrior: Miri's Challenge</t>
-  </si>
-  <si>
-    <t>レリクス闇からの侵略者</t>
-  </si>
-  <si>
-    <t>Relics Invaders from the Dark</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ソロモンの鍵外伝</t>
-  </si>
-  <si>
-    <t>Solomon's Key Side Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 新ゼルダの伝説</t>
-  </si>
-  <si>
-    <t>The Legend of New Zelda</t>
-  </si>
-  <si>
-    <t>魔鐘ルーバス復活の陰謀</t>
-  </si>
-  <si>
-    <t>The Conspiracy of Resurrection</t>
-  </si>
-  <si>
-    <t>メルヘンヴェール妖怪バーニバオの謎</t>
-  </si>
-  <si>
-    <t>Fairy Tale Veil Ghost Bernibao Mystery</t>
-  </si>
-  <si>
-    <t>アルゴスの戦士外伝聖戦士誕生</t>
-  </si>
-  <si>
-    <t>Argos Warrior Side Story: Holy Warrior is Born</t>
-  </si>
-  <si>
-    <t>禁断の黙示録クリスタルトライアングル</t>
-  </si>
-  <si>
-    <t>Forbidden Apocalypse Crystal Triangle</t>
-  </si>
-  <si>
-    <t>ディープダンジョン ルウの遺産</t>
-  </si>
-  <si>
-    <t>Legacy of Deep Dungeon Lou</t>
-  </si>
-  <si>
-    <t>アテナ幻想界の大妖魔</t>
-  </si>
-  <si>
-    <t>Athena: The Great Demon of Fantasy</t>
-  </si>
-  <si>
-    <t>装甲騎兵ボトムズ復讐の惑星シド</t>
-  </si>
-  <si>
-    <t>Armored Trooper Votoms: Revenge Planet Sid</t>
-  </si>
-  <si>
-    <t>クレオパトラの魔宝 古代王朝の王冠</t>
-  </si>
-  <si>
-    <t>Cleopatra's Treasure: Ancient Dynasty Crown</t>
-  </si>
-  <si>
-    <t>エアウルフ東京極秘指令</t>
-  </si>
-  <si>
-    <t>Airwolf: Tokyo Top Secret Order</t>
-  </si>
-  <si>
-    <t>未来神話ジャーヴァス闇の反逆者</t>
-  </si>
-  <si>
-    <t>Future Myth Jarvas: Rebel of Darkness</t>
-  </si>
-  <si>
-    <t>ナイトライダー無人兵器ゴリアテの挑戦</t>
-  </si>
-  <si>
-    <t>Knight Rider: Unmanned Weapon Goliath's Challenge</t>
-  </si>
-  <si>
-    <t>サラマンダ ラティス救出作戦</t>
-  </si>
-  <si>
-    <t>Salamanda: Lattice Rescue Operation</t>
-  </si>
-  <si>
-    <t>ウルティマ ブリタニア王国の危機</t>
-  </si>
-  <si>
-    <t>Ultima Crisis in Britannia</t>
-  </si>
-  <si>
-    <t>聖剣サイコカリバー外伝</t>
-  </si>
-  <si>
-    <t>Holy Sword Psycho Caliber Side Story</t>
-  </si>
-  <si>
-    <t>耐熱装甲レガシアムG計画撃滅作戦</t>
-  </si>
-  <si>
-    <t>Heat-Resistant Armor Legassium G Plan Destruction Strategy</t>
+    <t>36.jpg</t>
+  </si>
+  <si>
+    <t>怪人ラプリンスの挑戦 悪霊の館</t>
+  </si>
+  <si>
+    <t>Monster le Prince's Challenge: Demon House</t>
+  </si>
+  <si>
+    <t>37.jpg</t>
+  </si>
+  <si>
+    <t>仮面ライダーBLACK魔軍のバトル</t>
+  </si>
+  <si>
+    <t>Kamen Rider Black Demon Battle</t>
+  </si>
+  <si>
+    <t>38.jpg</t>
+  </si>
+  <si>
+    <t>ファイナルファンタジー クリスタル継承伝説</t>
+  </si>
+  <si>
+    <t>Final Fantasy Crystal Succession Legend</t>
+  </si>
+  <si>
+    <t>39.jpg</t>
+  </si>
+  <si>
+    <t>怪人ラプリンスの挑戦2獄門島の決闘</t>
+  </si>
+  <si>
+    <t>Monster le Prince's Challenge 2: Duel of Gokumon Island</t>
+  </si>
+  <si>
+    <t>40.jpg</t>
+  </si>
+  <si>
+    <t>聖戦士ダンバイン妖魔城塞ザーウェル</t>
+  </si>
+  <si>
+    <t>Holy Warrior Dunbine Youma Citadel</t>
+  </si>
+  <si>
+    <t>41.jpg</t>
+  </si>
+  <si>
+    <t>機動戦士ガンダム シャアの帰還</t>
+  </si>
+  <si>
+    <t>Mobile Suit Gundam: Char's Return</t>
+  </si>
+  <si>
+    <t>42.jpg</t>
+  </si>
+  <si>
+    <t>探偵神宮寺三郎 原宿・表参道殺人事件</t>
+  </si>
+  <si>
+    <t>Detective Saburo Jinguji Harajuku / Omotesando Murder Case</t>
+  </si>
+  <si>
+    <t>43.jpg</t>
+  </si>
+  <si>
+    <t>邪聖剣ネクロマンサー イシュメリア魔空戦記</t>
+  </si>
+  <si>
+    <t>Evil Holy Sword Necromancer Ishmería</t>
+  </si>
+  <si>
+    <t>44.jpg</t>
+  </si>
+  <si>
+    <t>アシュギーネ 爬人の邪都</t>
+  </si>
+  <si>
+    <t>Ashgine: Reptile's Evil City</t>
+  </si>
+  <si>
+    <t>45.jpg</t>
+  </si>
+  <si>
+    <t>ディープダンジョン3魔界都市からの脱出</t>
+  </si>
+  <si>
+    <t>Escape from Deep Dungeon 3: Makai City</t>
+  </si>
+  <si>
+    <t>46.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>gamebook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,16 +595,196 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -339,16 +792,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -659,41 +1301,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BB0FE8-6678-E44B-87BD-3496844A8DAD}">
-  <dimension ref="A1:F47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -701,19 +1346,22 @@
         <v>1985</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -721,19 +1369,22 @@
         <v>1986</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -741,19 +1392,22 @@
         <v>1986</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -761,19 +1415,22 @@
         <v>1986</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -781,19 +1438,22 @@
         <v>1986</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -801,19 +1461,22 @@
         <v>1986</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -821,19 +1484,22 @@
         <v>1986</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -841,19 +1507,22 @@
         <v>1986</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -861,19 +1530,22 @@
         <v>1986</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -881,20 +1553,22 @@
         <v>1987</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="str">
-        <f>CONCATENATE(A11, ".jpg")</f>
-        <v>10.jpg</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -902,20 +1576,22 @@
         <v>1987</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" ref="F12:F47" si="0">CONCATENATE(A12, ".jpg")</f>
-        <v>11.jpg</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -923,20 +1599,22 @@
         <v>1987</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>12.jpg</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -944,20 +1622,22 @@
         <v>1987</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>13.jpg</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -965,20 +1645,22 @@
         <v>1987</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>14.jpg</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -986,20 +1668,22 @@
         <v>1987</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>15.jpg</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1007,20 +1691,22 @@
         <v>1987</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>16.jpg</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1028,20 +1714,22 @@
         <v>1987</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>17.jpg</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1049,20 +1737,22 @@
         <v>1987</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>18.jpg</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1076,14 +1766,16 @@
         <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>19.jpg</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1091,20 +1783,22 @@
         <v>1987</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>20.jpg</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1112,20 +1806,22 @@
         <v>1987</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>21.jpg</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1133,20 +1829,22 @@
         <v>1987</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>22.jpg</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1154,20 +1852,22 @@
         <v>1987</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>23.jpg</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1175,20 +1875,22 @@
         <v>1987</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>24.jpg</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1196,20 +1898,22 @@
         <v>1987</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>25.jpg</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1217,20 +1921,22 @@
         <v>1987</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>26.jpg</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1238,20 +1944,22 @@
         <v>1987</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>27.jpg</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1259,20 +1967,22 @@
         <v>1987</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>28.jpg</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1280,20 +1990,22 @@
         <v>1987</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>29.jpg</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1301,20 +2013,22 @@
         <v>1987</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>30.jpg</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1322,20 +2036,22 @@
         <v>1987</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>31.jpg</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1343,20 +2059,22 @@
         <v>1987</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>32.jpg</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1364,19 +2082,22 @@
         <v>1987</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1384,20 +2105,22 @@
         <v>1987</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>34.jpg</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1405,20 +2128,22 @@
         <v>1987</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>35.jpg</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1426,170 +2151,252 @@
         <v>1987</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>36.jpg</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>1987</v>
       </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
       <c r="E38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>37.jpg</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>1988</v>
       </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
       <c r="E39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>38.jpg</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>1988</v>
       </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
       <c r="E40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>39.jpg</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>1988</v>
       </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
       <c r="E41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>40.jpg</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>1988</v>
       </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
       <c r="E42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>41.jpg</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>1988</v>
       </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
       <c r="E43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>42.jpg</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>1988</v>
       </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
       <c r="E44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>43.jpg</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>1988</v>
       </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
       <c r="E45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>44.jpg</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>1988</v>
       </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
       <c r="E46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>45.jpg</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>1988</v>
       </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
       <c r="E47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>46.jpg</v>
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/adventure-hero-books/checklist.xlsx
+++ b/adventure-hero-books/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/adventure-hero-books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5478E6B9-9DB0-2B4F-B7E3-07BEE91A7A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC3808A-F2E4-BA40-9027-C9D2164D405E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
   <si>
-    <t>Index</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -461,12 +458,15 @@
   </si>
   <si>
     <t>gamebook</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1301,11 +1301,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1317,25 +1317,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1346,19 +1346,19 @@
         <v>1985</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1369,19 +1369,19 @@
         <v>1986</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1392,19 +1392,19 @@
         <v>1986</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1415,19 +1415,19 @@
         <v>1986</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1438,19 +1438,19 @@
         <v>1986</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1461,19 +1461,19 @@
         <v>1986</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1484,19 +1484,19 @@
         <v>1986</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1507,19 +1507,19 @@
         <v>1986</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1530,19 +1530,19 @@
         <v>1986</v>
       </c>
       <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1553,19 +1553,19 @@
         <v>1987</v>
       </c>
       <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1576,19 +1576,19 @@
         <v>1987</v>
       </c>
       <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1599,19 +1599,19 @@
         <v>1987</v>
       </c>
       <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1622,19 +1622,19 @@
         <v>1987</v>
       </c>
       <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
       <c r="G14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1645,19 +1645,19 @@
         <v>1987</v>
       </c>
       <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1668,19 +1668,19 @@
         <v>1987</v>
       </c>
       <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1691,19 +1691,19 @@
         <v>1987</v>
       </c>
       <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1714,19 +1714,19 @@
         <v>1987</v>
       </c>
       <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1737,19 +1737,19 @@
         <v>1987</v>
       </c>
       <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1760,19 +1760,19 @@
         <v>1987</v>
       </c>
       <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1783,19 +1783,19 @@
         <v>1987</v>
       </c>
       <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1806,19 +1806,19 @@
         <v>1987</v>
       </c>
       <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>69</v>
-      </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1829,19 +1829,19 @@
         <v>1987</v>
       </c>
       <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>72</v>
-      </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1852,19 +1852,19 @@
         <v>1987</v>
       </c>
       <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>75</v>
-      </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1875,19 +1875,19 @@
         <v>1987</v>
       </c>
       <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>78</v>
-      </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1898,19 +1898,19 @@
         <v>1987</v>
       </c>
       <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1921,19 +1921,19 @@
         <v>1987</v>
       </c>
       <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>83</v>
       </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1944,19 +1944,19 @@
         <v>1987</v>
       </c>
       <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
         <v>85</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>86</v>
       </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
-      </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1967,19 +1967,19 @@
         <v>1987</v>
       </c>
       <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>89</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>90</v>
-      </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1990,19 +1990,19 @@
         <v>1987</v>
       </c>
       <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>92</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>93</v>
-      </c>
       <c r="G30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2013,19 +2013,19 @@
         <v>1987</v>
       </c>
       <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
         <v>94</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>95</v>
       </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>96</v>
-      </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2036,19 +2036,19 @@
         <v>1987</v>
       </c>
       <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>98</v>
       </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>99</v>
-      </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2059,19 +2059,19 @@
         <v>1987</v>
       </c>
       <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
         <v>100</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>101</v>
       </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>102</v>
-      </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2082,19 +2082,19 @@
         <v>1987</v>
       </c>
       <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
         <v>103</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>104</v>
       </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>105</v>
-      </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2105,19 +2105,19 @@
         <v>1987</v>
       </c>
       <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
         <v>106</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>107</v>
       </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>108</v>
-      </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2128,19 +2128,19 @@
         <v>1987</v>
       </c>
       <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
         <v>109</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>110</v>
       </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>111</v>
-      </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2151,19 +2151,19 @@
         <v>1987</v>
       </c>
       <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
         <v>112</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>113</v>
       </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>114</v>
-      </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2174,19 +2174,19 @@
         <v>1987</v>
       </c>
       <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
         <v>115</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>116</v>
       </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>117</v>
-      </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2197,19 +2197,19 @@
         <v>1988</v>
       </c>
       <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
         <v>118</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>119</v>
       </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>120</v>
-      </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2220,19 +2220,19 @@
         <v>1988</v>
       </c>
       <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
         <v>121</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>122</v>
       </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>123</v>
-      </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2243,19 +2243,19 @@
         <v>1988</v>
       </c>
       <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
         <v>124</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>125</v>
       </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>126</v>
-      </c>
       <c r="G41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2266,19 +2266,19 @@
         <v>1988</v>
       </c>
       <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
         <v>127</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>128</v>
       </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>129</v>
-      </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2289,19 +2289,19 @@
         <v>1988</v>
       </c>
       <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
         <v>130</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>131</v>
       </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>132</v>
-      </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2312,19 +2312,19 @@
         <v>1988</v>
       </c>
       <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
         <v>133</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>134</v>
       </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>135</v>
-      </c>
       <c r="G44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2335,19 +2335,19 @@
         <v>1988</v>
       </c>
       <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" t="s">
         <v>136</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>137</v>
       </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
-        <v>138</v>
-      </c>
       <c r="G45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2358,19 +2358,19 @@
         <v>1988</v>
       </c>
       <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
         <v>139</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>140</v>
       </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>141</v>
-      </c>
       <c r="G46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2381,19 +2381,19 @@
         <v>1988</v>
       </c>
       <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
         <v>142</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>143</v>
       </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>144</v>
-      </c>
       <c r="G47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
